--- a/10-file-io/demo.xlsx
+++ b/10-file-io/demo.xlsx
@@ -425,6 +425,9 @@
       <c r="A1" t="n">
         <v>1</v>
       </c>
+      <c r="B1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="B2" t="n">
